--- a/app/data/absenteeism_data_46.xlsx
+++ b/app/data/absenteeism_data_46.xlsx
@@ -476,272 +476,272 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>76824</v>
+        <v>74531</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gustavo Henrique Martins</t>
+          <t>Gustavo Silveira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45101</v>
+        <v>45082</v>
       </c>
       <c r="G2" t="n">
-        <v>6606.33</v>
+        <v>5734.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>66458</v>
+        <v>10235</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Isaac Castro</t>
+          <t>Theo da Mata</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="G3" t="n">
-        <v>5108.44</v>
+        <v>11726.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>87244</v>
+        <v>72835</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Benjamin Costa</t>
+          <t>Dr. Lucas Gabriel Costela</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45084</v>
+        <v>45099</v>
       </c>
       <c r="G4" t="n">
-        <v>3330.44</v>
+        <v>11677.71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>29961</v>
+        <v>50082</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sr. Leonardo Cunha</t>
+          <t>Agatha Novaes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45087</v>
+        <v>45100</v>
       </c>
       <c r="G5" t="n">
-        <v>10553.81</v>
+        <v>10912.45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>55376</v>
+        <v>73151</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sr. Benjamin Pinto</t>
+          <t>Sr. Marcos Vinicius Costela</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45086</v>
+        <v>45106</v>
       </c>
       <c r="G6" t="n">
-        <v>4349.33</v>
+        <v>9916.120000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3935</v>
+        <v>64764</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Guilherme Pinto</t>
+          <t>Lorenzo da Cruz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45081</v>
+        <v>45101</v>
       </c>
       <c r="G7" t="n">
-        <v>4482.09</v>
+        <v>5335.08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>99176</v>
+        <v>83659</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Luiz Miguel da Rocha</t>
+          <t>Lorenzo Dias</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45103</v>
+        <v>45097</v>
       </c>
       <c r="G8" t="n">
-        <v>2572.6</v>
+        <v>8541.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6023</v>
+        <v>84162</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Julia Jesus</t>
+          <t>Lorenzo Costela</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45104</v>
+        <v>45099</v>
       </c>
       <c r="G9" t="n">
-        <v>10316.51</v>
+        <v>8665.25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>34010</v>
+        <v>42794</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alice da Mota</t>
+          <t>Vitor Pinto</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45095</v>
+        <v>45088</v>
       </c>
       <c r="G10" t="n">
-        <v>4855.57</v>
+        <v>11318.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>96544</v>
+        <v>16411</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sra. Esther Farias</t>
+          <t>Rafaela Barbosa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,17 +751,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45098</v>
+        <v>45088</v>
       </c>
       <c r="G11" t="n">
-        <v>9342.690000000001</v>
+        <v>8708.790000000001</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_46.xlsx
+++ b/app/data/absenteeism_data_46.xlsx
@@ -476,190 +476,190 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>94383</v>
+        <v>97376</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dr. Pedro Miguel Ramos</t>
+          <t>Vitória Moreira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45082</v>
+        <v>45099</v>
       </c>
       <c r="G2" t="n">
-        <v>5839.81</v>
+        <v>10951.66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>93528</v>
+        <v>56773</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eduarda Nunes</t>
+          <t>Marcos Vinicius da Mota</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>45106</v>
       </c>
       <c r="G3" t="n">
-        <v>4917.17</v>
+        <v>4400.97</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>41923</v>
+        <v>28607</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana Vitória Pires</t>
+          <t>Sr. Luigi Costa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45102</v>
+        <v>45101</v>
       </c>
       <c r="G4" t="n">
-        <v>6175.28</v>
+        <v>10014.65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>77862</v>
+        <v>81528</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ryan Caldeira</t>
+          <t>Isadora Gomes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45081</v>
+        <v>45104</v>
       </c>
       <c r="G5" t="n">
-        <v>10151.54</v>
+        <v>9704.200000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>46589</v>
+        <v>42072</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Paulo Castro</t>
+          <t>Emanuella Rocha</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45083</v>
+        <v>45091</v>
       </c>
       <c r="G6" t="n">
-        <v>3596.16</v>
+        <v>12181.91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>27759</v>
+        <v>8748</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sarah Dias</t>
+          <t>Srta. Helena Monteiro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45085</v>
+        <v>45096</v>
       </c>
       <c r="G7" t="n">
-        <v>10826.76</v>
+        <v>8186.61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>94456</v>
+        <v>68880</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Kamilly da Cruz</t>
+          <t>Pedro Cavalcanti</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,27 +668,27 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45088</v>
+        <v>45086</v>
       </c>
       <c r="G8" t="n">
-        <v>8184.89</v>
+        <v>11026.37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>77707</v>
+        <v>5038</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Vitor Hugo Rodrigues</t>
+          <t>Guilherme da Costa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45101</v>
+        <v>45096</v>
       </c>
       <c r="G9" t="n">
-        <v>5437.05</v>
+        <v>5020.48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10248</v>
+        <v>33294</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Emanuel Rocha</t>
+          <t>Samuel Rezende</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45083</v>
+        <v>45101</v>
       </c>
       <c r="G10" t="n">
-        <v>5630.57</v>
+        <v>9300.709999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>49093</v>
+        <v>2388</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>João Vitor Gomes</t>
+          <t>Yuri Alves</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45080</v>
+        <v>45089</v>
       </c>
       <c r="G11" t="n">
-        <v>9949.82</v>
+        <v>2842.49</v>
       </c>
     </row>
   </sheetData>
